--- a/data/trans_orig/P21D_2_R-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P21D_2_R-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>16602</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10243</v>
+        <v>9720</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>26037</v>
+        <v>26421</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.08406535295729262</v>
+        <v>0.08406535295729264</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05186688554124232</v>
+        <v>0.04921813015416399</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1318358906133199</v>
+        <v>0.1337793127988482</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>21</v>
@@ -762,19 +762,19 @@
         <v>14783</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>9241</v>
+        <v>9266</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>23573</v>
+        <v>23655</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.05493840780292459</v>
+        <v>0.0549384078029246</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03434160593877195</v>
+        <v>0.03443533006560744</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08760861904281088</v>
+        <v>0.08791169260442401</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>38</v>
@@ -783,19 +783,19 @@
         <v>31385</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>22528</v>
+        <v>21895</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>43592</v>
+        <v>43649</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06726755800637217</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0482850594303923</v>
+        <v>0.04692784934806915</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09343093565594639</v>
+        <v>0.09355221676925347</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>180893</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>171458</v>
+        <v>171074</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>187252</v>
+        <v>187775</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9159346470427074</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8681641093866803</v>
+        <v>0.866220687201152</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9481331144587579</v>
+        <v>0.9507818698458361</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>356</v>
@@ -833,19 +833,19 @@
         <v>254294</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>245504</v>
+        <v>245422</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>259836</v>
+        <v>259811</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9450615921970754</v>
+        <v>0.9450615921970755</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9123913809571906</v>
+        <v>0.9120883073955758</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9656583940612283</v>
+        <v>0.9655646699343926</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>528</v>
@@ -854,19 +854,19 @@
         <v>435187</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>422980</v>
+        <v>422923</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>444044</v>
+        <v>444677</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9327324419936278</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9065690643440537</v>
+        <v>0.9064477832307469</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9517149405696079</v>
+        <v>0.953072150651931</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>12557</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6427</v>
+        <v>6462</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>22352</v>
+        <v>23388</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.03170006024915495</v>
+        <v>0.03170006024915496</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01622415931129956</v>
+        <v>0.01631313686288743</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05642887642919178</v>
+        <v>0.05904413355471397</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>23</v>
@@ -979,19 +979,19 @@
         <v>17452</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>10686</v>
+        <v>10684</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>26700</v>
+        <v>27945</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03640739884525093</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02229217042218238</v>
+        <v>0.02228853437816735</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05569983621045465</v>
+        <v>0.05829726267723642</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>35</v>
@@ -1000,19 +1000,19 @@
         <v>30009</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>20853</v>
+        <v>20758</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>43010</v>
+        <v>42629</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0342774892502464</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02381904044139173</v>
+        <v>0.02371072495532077</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04912838361742485</v>
+        <v>0.04869337365013362</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>383561</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>373766</v>
+        <v>372730</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>389691</v>
+        <v>389656</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9682999397508449</v>
+        <v>0.9682999397508451</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9435711235708074</v>
+        <v>0.9409558664452862</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9837758406887002</v>
+        <v>0.9836868631371127</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>667</v>
@@ -1050,19 +1050,19 @@
         <v>461895</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>452647</v>
+        <v>451402</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>468661</v>
+        <v>468663</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9635926011547492</v>
+        <v>0.9635926011547491</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9443001637895453</v>
+        <v>0.9417027373227626</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9777078295778177</v>
+        <v>0.9777114656218325</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1021</v>
@@ -1071,19 +1071,19 @@
         <v>845456</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>832455</v>
+        <v>832836</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>854612</v>
+        <v>854707</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9657225107497535</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9508716163825751</v>
+        <v>0.951306626349866</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9761809595586082</v>
+        <v>0.9762892750446793</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>4382</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1460</v>
+        <v>1542</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9480</v>
+        <v>10105</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01073975401587548</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003578328203501348</v>
+        <v>0.003779379100980166</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02323414706605159</v>
+        <v>0.02476740967051545</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>8</v>
@@ -1196,19 +1196,19 @@
         <v>5552</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2492</v>
+        <v>2537</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>10689</v>
+        <v>11350</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01276391223527919</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.00572787492313425</v>
+        <v>0.005832279916630269</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0245727431923815</v>
+        <v>0.02609131082453791</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>13</v>
@@ -1217,19 +1217,19 @@
         <v>9934</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>5428</v>
+        <v>5654</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>17562</v>
+        <v>16754</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01178425086285193</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.006439367566864691</v>
+        <v>0.006706787606555683</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02083308930998797</v>
+        <v>0.01987408815114204</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>403618</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>398520</v>
+        <v>397895</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>406540</v>
+        <v>406458</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9892602459841245</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9767658529339489</v>
+        <v>0.9752325903294846</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.996421671796499</v>
+        <v>0.9962206208990199</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>606</v>
@@ -1267,19 +1267,19 @@
         <v>429450</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>424313</v>
+        <v>423652</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>432510</v>
+        <v>432465</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9872360877647207</v>
+        <v>0.9872360877647208</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9754272568076184</v>
+        <v>0.9739086891754618</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9942721250768657</v>
+        <v>0.9941677200833698</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>986</v>
@@ -1288,19 +1288,19 @@
         <v>833068</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>825440</v>
+        <v>826248</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>837574</v>
+        <v>837348</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.988215749137148</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9791669106900122</v>
+        <v>0.980125911848858</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9935606324331354</v>
+        <v>0.9932932123934444</v>
       </c>
     </row>
     <row r="12">
@@ -1405,19 +1405,19 @@
         <v>2092</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>0</v>
+        <v>672</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>5695</v>
+        <v>5615</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.004208912418518575</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0</v>
+        <v>0.001352096520532026</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01146002015741235</v>
+        <v>0.01130005334603953</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>3</v>
@@ -1426,19 +1426,19 @@
         <v>2092</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>5712</v>
+        <v>5593</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.001999072997201979</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0006560268953026339</v>
+        <v>0.0006493061386153134</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.005459071297189616</v>
+        <v>0.005345252542441958</v>
       </c>
     </row>
     <row r="14">
@@ -1468,19 +1468,19 @@
         <v>494841</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>491238</v>
+        <v>491318</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>496933</v>
+        <v>496261</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9957910875814814</v>
+        <v>0.9957910875814815</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9885399798425878</v>
+        <v>0.9886999466539604</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>1</v>
+        <v>0.9986479034794679</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1174</v>
@@ -1489,19 +1489,19 @@
         <v>1044166</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1040546</v>
+        <v>1040665</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1045572</v>
+        <v>1045579</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9980009270027981</v>
+        <v>0.998000927002798</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9945409287028104</v>
+        <v>0.994654747457558</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9993439731046975</v>
+        <v>0.9993506938613845</v>
       </c>
     </row>
     <row r="15">
@@ -1593,19 +1593,19 @@
         <v>33541</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>23434</v>
+        <v>23040</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>46266</v>
+        <v>48463</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02162645225738742</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01510985486022865</v>
+        <v>0.01485565977340454</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02983100890084888</v>
+        <v>0.03124750601564832</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>55</v>
@@ -1614,19 +1614,19 @@
         <v>39878</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>30084</v>
+        <v>29550</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>53959</v>
+        <v>51444</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02373201838486279</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01790332116114361</v>
+        <v>0.01758529428206348</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03211168359636721</v>
+        <v>0.03061505397208827</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>89</v>
@@ -1635,19 +1635,19 @@
         <v>73420</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>59378</v>
+        <v>59944</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>92394</v>
+        <v>91587</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02272140135386076</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01837597517844753</v>
+        <v>0.01855093183177878</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02859356059240304</v>
+        <v>0.02834386118199674</v>
       </c>
     </row>
     <row r="17">
@@ -1664,19 +1664,19 @@
         <v>1517397</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1504672</v>
+        <v>1502475</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1527504</v>
+        <v>1527898</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9783735477426125</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9701689910991512</v>
+        <v>0.9687524939843515</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9848901451397714</v>
+        <v>0.9851443402265955</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2296</v>
@@ -1685,19 +1685,19 @@
         <v>1640480</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1626399</v>
+        <v>1628914</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1650274</v>
+        <v>1650808</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9762679816151373</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.967888316403633</v>
+        <v>0.9693849460279118</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9820966788388567</v>
+        <v>0.9824147057179365</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3709</v>
@@ -1706,19 +1706,19 @@
         <v>3157877</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3138903</v>
+        <v>3139710</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3171919</v>
+        <v>3171353</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9772785986461394</v>
+        <v>0.9772785986461392</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9714064394075971</v>
+        <v>0.9716561388180032</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9816240248215525</v>
+        <v>0.9814490681682213</v>
       </c>
     </row>
     <row r="18">
